--- a/BCarbone.xlsx
+++ b/BCarbone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisaugey/IR-1/Bilan Carbone/GES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5A21BF-C3CE-9B4A-9697-74E065CCE963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4DB3C9-E8C1-104D-8E6E-FDFBB421E88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{C7CF1525-85B5-6E40-91DC-F00361EE7ED7}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="17160" windowHeight="21600" xr2:uid="{C7CF1525-85B5-6E40-91DC-F00361EE7ED7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>Adresse</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Colmar</t>
   </si>
   <si>
+    <t>train</t>
+  </si>
+  <si>
     <t>Bruno</t>
   </si>
   <si>
@@ -222,6 +225,18 @@
   </si>
   <si>
     <t>Salarié</t>
+  </si>
+  <si>
+    <t>Déplacement Pro Karim</t>
+  </si>
+  <si>
+    <t>Avion</t>
+  </si>
+  <si>
+    <t>Voiture</t>
+  </si>
+  <si>
+    <t>Distance (en km)</t>
   </si>
 </sst>
 </file>
@@ -320,6 +335,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF737474"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -650,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE2790F-E421-0D45-8093-08A4838B4972}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -670,7 +690,7 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -679,22 +699,22 @@
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="2:10">
@@ -705,10 +725,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="7">
         <v>44.8</v>
@@ -731,16 +751,16 @@
     </row>
     <row r="3" spans="2:10">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3">
         <v>25.4</v>
@@ -764,16 +784,16 @@
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="7">
         <v>5.6</v>
@@ -797,16 +817,16 @@
     </row>
     <row r="5" spans="2:10">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>37.4</v>
@@ -830,16 +850,16 @@
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="7">
         <v>4</v>
@@ -863,16 +883,16 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7">
         <v>30</v>
@@ -895,16 +915,16 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7">
         <f>5.9+19.2</f>
@@ -929,16 +949,16 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -962,16 +982,16 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7">
         <v>0</v>
@@ -994,16 +1014,16 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11">
         <v>68.400000000000006</v>
@@ -1027,16 +1047,16 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" s="7">
         <v>23</v>
@@ -1060,16 +1080,16 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>20.3</v>
@@ -1093,16 +1113,16 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="7">
         <v>7.4</v>
@@ -1126,16 +1146,16 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15">
         <v>2.5</v>
@@ -1158,16 +1178,16 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="7">
         <v>3.4</v>
@@ -1191,7 +1211,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1220,87 +1240,109 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>51</v>
+      <c r="G21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="5">
         <v>0.2</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E22" s="5">
         <f>AVERAGE(F2:F16)</f>
         <v>20.086666666666662</v>
       </c>
+      <c r="G22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22">
+        <f>694*2+784*2+680*2</f>
+        <v>4316</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="5">
+      <c r="A23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="7">
         <v>0.185</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="D23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="7">
         <f>AVERAGE(G2:G16)</f>
         <v>42.36</v>
       </c>
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="5">
         <v>0.03</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" s="5">
         <f>AVERAGE(H2:H16)</f>
         <v>2.606266666666667</v>
       </c>
+      <c r="G24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24">
+        <v>100000</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="5">
+      <c r="A25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="7">
         <v>0.06</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="D25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="7">
         <f>AVERAGE(I2:I16)</f>
         <v>5.5864000000000011</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E26" s="5">
         <f>AVERAGE(J2:J16)</f>
@@ -1309,17 +1351,17 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/BCarbone.xlsx
+++ b/BCarbone.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisaugey/IR-1/Bilan Carbone/GES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4DB3C9-E8C1-104D-8E6E-FDFBB421E88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5099AC4-FC27-8549-ABD6-F905EF535E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="17160" windowHeight="21600" xr2:uid="{C7CF1525-85B5-6E40-91DC-F00361EE7ED7}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{C7CF1525-85B5-6E40-91DC-F00361EE7ED7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Application" sheetId="3" r:id="rId1"/>
+    <sheet name="Utilisateurs" sheetId="4" r:id="rId2"/>
+    <sheet name="Personnel" sheetId="1" r:id="rId3"/>
+    <sheet name="Batîment" sheetId="2" r:id="rId4"/>
+    <sheet name="Matériel" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="128">
   <si>
     <t>Adresse</t>
   </si>
@@ -179,15 +186,6 @@
     <t>Pause déjeuner (P : place , D : domicile)</t>
   </si>
   <si>
-    <t>source :</t>
-  </si>
-  <si>
-    <t>https://ouestlecarbone.com/le-transport/</t>
-  </si>
-  <si>
-    <t>Polution(kgCO2) /trajet</t>
-  </si>
-  <si>
     <t>SNCF</t>
   </si>
   <si>
@@ -215,12 +213,6 @@
     <t>Polution anuelle/salarié</t>
   </si>
   <si>
-    <t>Polution tot/ An</t>
-  </si>
-  <si>
-    <t>Polution tot/jour</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -237,13 +229,238 @@
   </si>
   <si>
     <t>Distance (en km)</t>
+  </si>
+  <si>
+    <t>850000kWh/an</t>
+  </si>
+  <si>
+    <t>Poste</t>
+  </si>
+  <si>
+    <t>Incertitude DA</t>
+  </si>
+  <si>
+    <t>Source FE</t>
+  </si>
+  <si>
+    <t>Incertitude FE</t>
+  </si>
+  <si>
+    <t>quantité utilisé</t>
+  </si>
+  <si>
+    <t>facteur d'émission</t>
+  </si>
+  <si>
+    <t>Activité</t>
+  </si>
+  <si>
+    <t>Incertitude totale (da*fe=emission)</t>
+  </si>
+  <si>
+    <t>Energie</t>
+  </si>
+  <si>
+    <t>Données d'activité</t>
+  </si>
+  <si>
+    <t>Électricité</t>
+  </si>
+  <si>
+    <t>edf</t>
+  </si>
+  <si>
+    <t>Valeur FE</t>
+  </si>
+  <si>
+    <t>Emission</t>
+  </si>
+  <si>
+    <t>Gaz naturel</t>
+  </si>
+  <si>
+    <t>90000kWh PCS/an</t>
+  </si>
+  <si>
+    <t>227gCo2/kWh</t>
+  </si>
+  <si>
+    <t>11gCo2/kWh</t>
+  </si>
+  <si>
+    <t>gouvernement</t>
+  </si>
+  <si>
+    <t>9,350 TCo2/an</t>
+  </si>
+  <si>
+    <t>20,430 TCo2/an</t>
+  </si>
+  <si>
+    <t>Voirie</t>
+  </si>
+  <si>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>25m2*20 places*45cm epaisseur=500</t>
+  </si>
+  <si>
+    <t>225m3</t>
+  </si>
+  <si>
+    <t>carbo academie</t>
+  </si>
+  <si>
+    <t>78,75 TCo2</t>
+  </si>
+  <si>
+    <t>250m2</t>
+  </si>
+  <si>
+    <t>925kgCo2/m2</t>
+  </si>
+  <si>
+    <t>hellocarbo</t>
+  </si>
+  <si>
+    <t>231,25TCo2</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Pays</t>
+  </si>
+  <si>
+    <t>nb utilisateurs</t>
+  </si>
+  <si>
+    <t>nb utilisation/utilisateu/an</t>
+  </si>
+  <si>
+    <t>donnée mobile(Mo)/utilisateur</t>
+  </si>
+  <si>
+    <t>Pollution kgCO2</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Allemagne</t>
+  </si>
+  <si>
+    <t>Suisse</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Sources:</t>
+  </si>
+  <si>
+    <t>Coût données mobiles</t>
+  </si>
+  <si>
+    <t>Pollution(kgCO2) /trajet</t>
+  </si>
+  <si>
+    <t>Pollution tot/jour</t>
+  </si>
+  <si>
+    <t>Pollution tot/ An</t>
+  </si>
+  <si>
+    <t>Pollution tot/an + pro</t>
+  </si>
+  <si>
+    <t>kgCO2</t>
+  </si>
+  <si>
+    <t>Données carbone transport</t>
+  </si>
+  <si>
+    <t>Airbus</t>
+  </si>
+  <si>
+    <r>
+      <t>350</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF3F3D56"/>
+        <rFont val="Noto Sans"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3F3D56"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>kgCO2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3F3D56"/>
+        <rFont val="Noto Sans"/>
+      </rPr>
+      <t>/m³.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sources :</t>
+  </si>
+  <si>
+    <t>carbo académie</t>
+  </si>
+  <si>
+    <t>sources :</t>
+  </si>
+  <si>
+    <t>travaillent 220j/an</t>
+  </si>
+  <si>
+    <t>Déplacements domicile/travail</t>
+  </si>
+  <si>
+    <t>Déplacements professionnel</t>
+  </si>
+  <si>
+    <t>19136,523 kgCo2/an</t>
+  </si>
+  <si>
+    <t>18435,12 kgCo2/an</t>
+  </si>
+  <si>
+    <t>139788km/an</t>
+  </si>
+  <si>
+    <t>111566km/an</t>
+  </si>
+  <si>
+    <t>[0,2-0,003] kgCo2/km</t>
+  </si>
+  <si>
+    <t>[0,2-0,0055] kgCo2/km</t>
+  </si>
+  <si>
+    <t>Sncf, Airbus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -276,6 +493,42 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF3F3D56"/>
+      <name val="Noto Sans"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF467886"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3D56"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3D56"/>
+      <name val="Noto Sans"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3D56"/>
+      <name val="Noto Sans"/>
     </font>
   </fonts>
   <fills count="5">
@@ -317,7 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -328,6 +581,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -349,6 +618,3167 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Pollution sur</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> les déplecements quotidients</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]déplacement entreprise'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pollution tot/ An</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]déplacement entreprise'!$B$2:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Amélie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bruno</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cédric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Denise</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Emilie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fabien</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Gérard</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Hortense</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ilian</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Juliette</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Karim</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mohammed</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Naël </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Olivine </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Pascaline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]déplacement entreprise'!$J$2:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2235.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>985.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3044.3599999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>331.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5567.7600000000011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2024.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1786.4000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1302.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>179.51999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-50E1-7244-A364-210300C7C08D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="818995488"/>
+        <c:axId val="818996448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="818995488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818996448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="818996448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818995488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pollution tout</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> déplacements compris</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]déplacement entreprise'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pollution tot/an + pro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]déplacement entreprise'!$B$2:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Amélie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bruno</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cédric</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Denise</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Emilie</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fabien</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Gérard</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Hortense</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ilian</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Juliette</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Karim</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Mohammed</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Naël </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Olivine </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Pascaline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]déplacement entreprise'!$K$2:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2235.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>985.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3044.3599999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>331.32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5567.7600000000011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21160.523000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1786.4000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1302.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>179.51999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E793-D14B-AC92-A5AD8F709359}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="838532672"/>
+        <c:axId val="838536992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="838532672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="838536992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="838536992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="838532672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pollution des déplacements</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> pro de karim</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]déplacement entreprise'!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kgCO2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]déplacement entreprise'!$G$22:$G$24</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Avion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>train</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Voiture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]déplacement entreprise'!$I$22:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>610.19999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.322999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2345-974A-B7A3-E7E1237EAD33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="838543232"/>
+        <c:axId val="838533152"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="838543232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="838533152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="838533152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="838543232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>450272</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>195119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CB9CA8-410E-6A1B-70A4-82E1661EC03F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11522363" y="3613727"/>
+          <a:ext cx="4613563" cy="2815937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>148936</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D954C685-5857-B0B9-D920-9E4A4BA19420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10425546" y="242455"/>
+          <a:ext cx="4613563" cy="2815936"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>122003</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>41095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>128426</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>64213</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F8A0ED3-6B53-5E42-A1FE-CE73FDEB14B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>100601</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>148119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>96320</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>107023</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F2BAC1-A4D3-3248-99ED-B621A8B63613}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>122006</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>51798</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>64214</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160534</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6AA353F-BD96-DB41-967D-579365DA9B90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="déplacement entreprise"/>
+      <sheetName val="Pollution donnée mobile"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="J1" t="str">
+            <v>Pollution tot/ An</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>Pollution tot/an + pro</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Amélie</v>
+          </cell>
+          <cell r="J2">
+            <v>616</v>
+          </cell>
+          <cell r="K2">
+            <v>616</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Bruno</v>
+          </cell>
+          <cell r="J3">
+            <v>2235.1999999999998</v>
+          </cell>
+          <cell r="K3">
+            <v>2235.1999999999998</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Cédric</v>
+          </cell>
+          <cell r="J4">
+            <v>985.59999999999991</v>
+          </cell>
+          <cell r="K4">
+            <v>985.59999999999991</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Denise</v>
+          </cell>
+          <cell r="J5">
+            <v>3044.3599999999997</v>
+          </cell>
+          <cell r="K5">
+            <v>3044.3599999999997</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Emilie</v>
+          </cell>
+          <cell r="J6">
+            <v>5.28</v>
+          </cell>
+          <cell r="K6">
+            <v>5.28</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Fabien</v>
+          </cell>
+          <cell r="J7">
+            <v>352</v>
+          </cell>
+          <cell r="K7">
+            <v>352</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Gérard</v>
+          </cell>
+          <cell r="J8">
+            <v>331.32</v>
+          </cell>
+          <cell r="K8">
+            <v>331.32</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Hortense</v>
+          </cell>
+          <cell r="J9">
+            <v>5.28</v>
+          </cell>
+          <cell r="K9">
+            <v>5.28</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Ilian</v>
+          </cell>
+          <cell r="J10">
+            <v>0</v>
+          </cell>
+          <cell r="K10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Juliette</v>
+          </cell>
+          <cell r="J11">
+            <v>5567.7600000000011</v>
+          </cell>
+          <cell r="K11">
+            <v>5567.7600000000011</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Karim</v>
+          </cell>
+          <cell r="J12">
+            <v>2024.0000000000002</v>
+          </cell>
+          <cell r="K12">
+            <v>21160.523000000001</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Mohammed</v>
+          </cell>
+          <cell r="J13">
+            <v>1786.4000000000003</v>
+          </cell>
+          <cell r="K13">
+            <v>1786.4000000000003</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v xml:space="preserve">Naël </v>
+          </cell>
+          <cell r="J14">
+            <v>1302.4000000000001</v>
+          </cell>
+          <cell r="K14">
+            <v>1302.4000000000001</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v xml:space="preserve">Olivine </v>
+          </cell>
+          <cell r="J15">
+            <v>0</v>
+          </cell>
+          <cell r="K15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>Pascaline</v>
+          </cell>
+          <cell r="J16">
+            <v>179.51999999999998</v>
+          </cell>
+          <cell r="K16">
+            <v>179.51999999999998</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="I21" t="str">
+            <v>kgCO2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="G22" t="str">
+            <v>Avion</v>
+          </cell>
+          <cell r="I22">
+            <v>610.19999999999993</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="G23" t="str">
+            <v>train</v>
+          </cell>
+          <cell r="I23">
+            <v>26.322999999999997</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="G24" t="str">
+            <v>Voiture</v>
+          </cell>
+          <cell r="I24">
+            <v>18500</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -667,707 +4097,1833 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EB4874-CF16-EC4C-ADCF-B6115FF27DE7}">
+  <dimension ref="A1:O32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="18">
+        <v>100000</v>
+      </c>
+      <c r="D22" s="18">
+        <v>500000</v>
+      </c>
+      <c r="E22" s="18">
+        <v>5000000</v>
+      </c>
+      <c r="F22" s="18">
+        <v>247</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="11"/>
+      <c r="B23" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="19">
+        <v>45000</v>
+      </c>
+      <c r="D23" s="19">
+        <v>225000</v>
+      </c>
+      <c r="E23" s="19">
+        <v>2250000</v>
+      </c>
+      <c r="F23" s="19">
+        <v>111.15</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="18">
+        <v>28000</v>
+      </c>
+      <c r="D24" s="18">
+        <v>140000</v>
+      </c>
+      <c r="E24" s="18">
+        <v>1400000</v>
+      </c>
+      <c r="F24" s="18">
+        <v>69.16</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="17">
+        <v>173000</v>
+      </c>
+      <c r="D25" s="17">
+        <v>865000</v>
+      </c>
+      <c r="E25" s="17">
+        <v>8650000</v>
+      </c>
+      <c r="F25" s="17">
+        <v>427.31</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B19" r:id="rId1" display="https://www.sciencesetavenir.fr/high-tech/la-course-a-la-data-des-forfaits-mobiles-nuit-elle-a-l-environnement_165138" xr:uid="{F968DBBD-3FF2-F244-ABBE-C2D0B6E53C43}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1208E7EB-0130-0A4B-9BC7-28E0E60641E7}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="29.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE2790F-E421-0D45-8093-08A4838B4972}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" customWidth="1"/>
     <col min="4" max="4" width="37.83203125" customWidth="1"/>
     <col min="5" max="5" width="35.5" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" customWidth="1"/>
     <col min="9" max="9" width="21.1640625" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
-      <c r="B1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:10">
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0.03</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="J16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10">
-      <c r="B2" s="7" t="s">
+      <c r="H18" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F19" s="7">
         <v>44.8</v>
       </c>
-      <c r="G2" s="7">
-        <f>IF(E2="P",F2*2,F2*4)</f>
+      <c r="G19" s="7">
+        <f>IF(E19="P",F19*2,F19*4)</f>
         <v>89.6</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H19" s="7">
         <v>1.4</v>
       </c>
-      <c r="I2" s="7">
-        <f>IF(E2="P",H2*2,H2*4)</f>
+      <c r="I19" s="7">
+        <f>IF(E19="P",H19*2,H19*4)</f>
         <v>2.8</v>
       </c>
-      <c r="J2" s="7">
-        <f>I2*220</f>
+      <c r="J19" s="7">
+        <f>I19*220</f>
         <v>616</v>
       </c>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" t="s">
+      <c r="K19" s="7">
+        <f>J19</f>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D20" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E20" t="s">
         <v>40</v>
       </c>
-      <c r="F3">
+      <c r="F20">
         <v>25.4</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G16" si="0">IF(E3="P",F3*2,F3*4)</f>
+      <c r="G20">
+        <f t="shared" ref="G20:G33" si="0">IF(E20="P",F20*2,F20*4)</f>
         <v>50.8</v>
       </c>
-      <c r="H3">
-        <f>B22*F3</f>
+      <c r="H20">
+        <f>B39*F20</f>
         <v>5.08</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I16" si="1">IF(E3="P",H3*2,H3*4)</f>
+      <c r="I20">
+        <f t="shared" ref="I20:I33" si="1">IF(E20="P",H20*2,H20*4)</f>
         <v>10.16</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J16" si="2">I3*220</f>
+      <c r="J20">
+        <f t="shared" ref="J20:J33" si="2">I20*220</f>
         <v>2235.1999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="7" t="s">
+      <c r="K20">
+        <f t="shared" ref="K20:K33" si="3">J20</f>
+        <v>2235.1999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F21" s="7">
         <v>5.6</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G21" s="7">
         <f t="shared" si="0"/>
         <v>22.4</v>
       </c>
-      <c r="H4" s="7">
-        <f>B22*F4</f>
+      <c r="H21" s="7">
+        <f>B39*F21</f>
         <v>1.1199999999999999</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I21" s="7">
         <f t="shared" si="1"/>
         <v>4.4799999999999995</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J21" s="7">
         <f t="shared" si="2"/>
         <v>985.59999999999991</v>
       </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" t="s">
+      <c r="K21" s="7">
+        <f t="shared" si="3"/>
+        <v>985.59999999999991</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D22" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E22" t="s">
         <v>40</v>
       </c>
-      <c r="F5">
+      <c r="F22">
         <v>37.4</v>
       </c>
-      <c r="G5">
+      <c r="G22">
         <f t="shared" si="0"/>
         <v>74.8</v>
       </c>
-      <c r="H5">
-        <f>B23*F5</f>
+      <c r="H22">
+        <f>B40*F22</f>
         <v>6.9189999999999996</v>
       </c>
-      <c r="I5">
+      <c r="I22">
         <f t="shared" si="1"/>
         <v>13.837999999999999</v>
       </c>
-      <c r="J5">
+      <c r="J22">
         <f t="shared" si="2"/>
         <v>3044.3599999999997</v>
       </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="7" t="s">
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>3044.3599999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F23" s="7">
         <v>4</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G23" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H6" s="7">
-        <f>F6*B26</f>
+      <c r="H23" s="7">
+        <f>F23*B43</f>
         <v>1.2E-2</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I23" s="7">
         <f t="shared" si="1"/>
         <v>2.4E-2</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J23" s="7">
         <f t="shared" si="2"/>
         <v>5.28</v>
       </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" t="s">
+      <c r="K23" s="7">
+        <f t="shared" si="3"/>
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C24" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D24" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E24" t="s">
         <v>40</v>
       </c>
-      <c r="F7">
+      <c r="F24">
         <v>30</v>
       </c>
-      <c r="G7">
+      <c r="G24">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H7">
+      <c r="H24">
         <v>0.8</v>
       </c>
-      <c r="I7">
+      <c r="I24">
         <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
-      <c r="J7">
+      <c r="J24">
         <f t="shared" si="2"/>
         <v>352</v>
       </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="7" t="s">
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F25" s="7">
         <f>5.9+19.2</f>
         <v>25.1</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G25" s="7">
         <f t="shared" si="0"/>
         <v>50.2</v>
       </c>
-      <c r="H8" s="7">
-        <f>B24*F8</f>
+      <c r="H25" s="7">
+        <f>B41*F25</f>
         <v>0.753</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I25" s="7">
         <f t="shared" si="1"/>
         <v>1.506</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J25" s="7">
         <f t="shared" si="2"/>
         <v>331.32</v>
       </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" t="s">
+      <c r="K25" s="7">
+        <f t="shared" si="3"/>
+        <v>331.32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C26" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D26" t="s">
         <v>35</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E26" t="s">
         <v>40</v>
       </c>
-      <c r="F9">
+      <c r="F26">
         <v>4</v>
       </c>
-      <c r="G9">
+      <c r="G26">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H9">
-        <f>F9*B26</f>
+      <c r="H26">
+        <f>F26*B43</f>
         <v>1.2E-2</v>
       </c>
-      <c r="I9">
+      <c r="I26">
         <f t="shared" si="1"/>
         <v>2.4E-2</v>
       </c>
-      <c r="J9">
+      <c r="J26">
         <f t="shared" si="2"/>
         <v>5.28</v>
       </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="7" t="s">
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G27" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H27" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I27" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J27" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" t="s">
+      <c r="K27" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C28" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D28" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E28" t="s">
         <v>40</v>
       </c>
-      <c r="F11">
+      <c r="F28">
         <v>68.400000000000006</v>
       </c>
-      <c r="G11">
+      <c r="G28">
         <f t="shared" si="0"/>
         <v>136.80000000000001</v>
       </c>
-      <c r="H11">
-        <f>B23*F11</f>
+      <c r="H28">
+        <f>B40*F28</f>
         <v>12.654000000000002</v>
       </c>
-      <c r="I11">
+      <c r="I28">
         <f t="shared" si="1"/>
         <v>25.308000000000003</v>
       </c>
-      <c r="J11">
+      <c r="J28">
         <f t="shared" si="2"/>
         <v>5567.7600000000011</v>
       </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="7" t="s">
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>5567.7600000000011</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F29" s="7">
         <v>23</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G29" s="7">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="H12" s="7">
-        <f>B22*F12</f>
+      <c r="H29" s="7">
+        <f>B39*F29</f>
         <v>4.6000000000000005</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I29" s="7">
         <f t="shared" si="1"/>
         <v>9.2000000000000011</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J29" s="7">
         <f t="shared" si="2"/>
         <v>2024.0000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" t="s">
+      <c r="K29" s="7">
+        <f>J29+I42</f>
+        <v>21160.523000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C30" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D30" t="s">
         <v>32</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E30" t="s">
         <v>40</v>
       </c>
-      <c r="F13">
+      <c r="F30">
         <v>20.3</v>
       </c>
-      <c r="G13">
+      <c r="G30">
         <f t="shared" si="0"/>
         <v>40.6</v>
       </c>
-      <c r="H13">
-        <f>B22*F13</f>
+      <c r="H30">
+        <f>B39*F30</f>
         <v>4.0600000000000005</v>
       </c>
-      <c r="I13">
+      <c r="I30">
         <f t="shared" si="1"/>
         <v>8.120000000000001</v>
       </c>
-      <c r="J13">
+      <c r="J30">
         <f t="shared" si="2"/>
         <v>1786.4000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="8" t="s">
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>1786.4000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F31" s="7">
         <v>7.4</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G31" s="7">
         <f t="shared" si="0"/>
         <v>29.6</v>
       </c>
-      <c r="H14" s="7">
-        <f>B22*F14</f>
+      <c r="H31" s="7">
+        <f>B39*F31</f>
         <v>1.4800000000000002</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I31" s="7">
         <f t="shared" si="1"/>
         <v>5.9200000000000008</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J31" s="7">
         <f t="shared" si="2"/>
         <v>1302.4000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="1" t="s">
+      <c r="K31" s="7">
+        <f t="shared" si="3"/>
+        <v>1302.4000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C32" t="s">
         <v>30</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D32" t="s">
         <v>38</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E32" t="s">
         <v>40</v>
       </c>
-      <c r="F15">
+      <c r="F32">
         <v>2.5</v>
       </c>
-      <c r="G15">
+      <c r="G32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H15">
+      <c r="H32">
         <v>0</v>
       </c>
-      <c r="I15">
+      <c r="I32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15">
+      <c r="J32">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="7" t="s">
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="B33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F33" s="7">
         <v>3.4</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G33" s="7">
         <f t="shared" si="0"/>
         <v>13.6</v>
       </c>
-      <c r="H16" s="7">
-        <f>B25*F16</f>
+      <c r="H33" s="7">
+        <f>B42*F33</f>
         <v>0.20399999999999999</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I33" s="7">
         <f t="shared" si="1"/>
         <v>0.81599999999999995</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J33" s="7">
         <f t="shared" si="2"/>
         <v>179.51999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="9" t="s">
+      <c r="K33" s="7">
+        <f t="shared" si="3"/>
+        <v>179.51999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9">
+        <f>SUM(F19:F33)</f>
+        <v>301.29999999999995</v>
+      </c>
+      <c r="G34" s="9">
+        <f t="shared" ref="G34:K34" si="4">SUM(G19:G33)</f>
+        <v>635.4</v>
+      </c>
+      <c r="H34" s="9">
+        <f t="shared" si="4"/>
+        <v>39.094000000000001</v>
+      </c>
+      <c r="I34" s="9">
+        <f t="shared" si="4"/>
+        <v>83.796000000000021</v>
+      </c>
+      <c r="J34" s="9">
+        <f t="shared" si="4"/>
+        <v>18435.120000000003</v>
+      </c>
+      <c r="K34" s="9">
+        <f t="shared" si="4"/>
+        <v>37571.643000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="G35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9">
-        <f>SUM(F2:F16)</f>
-        <v>301.29999999999995</v>
-      </c>
-      <c r="G17" s="9">
-        <f t="shared" ref="G17:J17" si="3">SUM(G2:G16)</f>
-        <v>635.4</v>
-      </c>
-      <c r="H17" s="9">
-        <f t="shared" si="3"/>
-        <v>39.094000000000001</v>
-      </c>
-      <c r="I17" s="9">
-        <f t="shared" si="3"/>
-        <v>83.796000000000021</v>
-      </c>
-      <c r="J17" s="9">
-        <f t="shared" si="3"/>
-        <v>18435.120000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="I38" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="5">
+        <f>AVERAGE(F19:F33)</f>
+        <v>20.086666666666662</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" s="5">
+        <f>694*2+784*2+680*2+1232*2</f>
+        <v>6780</v>
+      </c>
+      <c r="I39" s="5">
+        <f>B44*H39</f>
+        <v>610.19999999999993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.185</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="7">
+        <f>AVERAGE(G19:G33)</f>
+        <v>42.36</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="7">
+        <f>483*2+382*2+666*2+862*2</f>
+        <v>4786</v>
+      </c>
+      <c r="I40" s="7">
+        <f>H40*0.0055</f>
+        <v>26.322999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="E41" s="5">
+        <f>AVERAGE(H19:H33)</f>
+        <v>2.606266666666667</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H41" s="5">
+        <v>100000</v>
+      </c>
+      <c r="I41" s="5">
+        <f>H41*B40</f>
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="5">
-        <f>AVERAGE(F2:F16)</f>
-        <v>20.086666666666662</v>
-      </c>
-      <c r="G22" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22">
-        <f>694*2+784*2+680*2</f>
-        <v>4316</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="7">
-        <v>0.185</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="E42" s="7">
+        <f>AVERAGE(I19:I33)</f>
+        <v>5.5864000000000011</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="9">
+        <f>H39+H41+H40</f>
+        <v>111566</v>
+      </c>
+      <c r="I42" s="9">
+        <f>I39+I41+I40</f>
+        <v>19136.523000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="7">
-        <f>AVERAGE(G2:G16)</f>
-        <v>42.36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="5">
-        <f>AVERAGE(H2:H16)</f>
-        <v>2.606266666666667</v>
-      </c>
-      <c r="G24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="7">
-        <f>AVERAGE(I2:I16)</f>
-        <v>5.5864000000000011</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="5">
-        <f>AVERAGE(J2:J16)</f>
+      <c r="E43" s="5">
+        <f>AVERAGE(J19:J33)</f>
         <v>1229.0080000000003</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
-        <v>50</v>
+    <row r="44" spans="1:11">
+      <c r="A44" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="5">
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B34" r:id="rId1" xr:uid="{353704FE-0AF8-2F44-ADAB-4E074282E9D0}"/>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{260A83CA-8BAC-2140-9B1B-69A6A2DD1F26}"/>
+    <hyperlink ref="B15" r:id="rId2" location="ampshare=https%3A%2F%2Fwww.bfmtv.com%2Feconomie%2Fentreprises%2Findustries%2Fairbus-devoile-l-empreinte-carbone-de-ses-avions_AD-202102260125.html" xr:uid="{18E9DBA4-0331-1D4E-8D95-7A1F05716737}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34204F6-0BE2-F94F-A99E-6C8CA50E3622}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="124" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="H4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="E8" s="13"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" location=":~:text=En%20France(1)%2C%20l,européenne%20du%20secteur(3)" xr:uid="{DA429D53-56C9-214A-AE68-2AA4F33030F4}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{3AB73C05-B7EC-474B-983F-2664465B4CC8}"/>
+    <hyperlink ref="B13" r:id="rId3" location=":~:text=Émissions%20directes&amp;text=Les%20bâtiments%20(tertiaire%20et%20résidentiel,se%20partagent%2050%25%20du%20gâteau" xr:uid="{79F567AB-281D-B542-AB6F-7356D959F2C7}"/>
+    <hyperlink ref="B14" r:id="rId4" location=":~:text=Plus%20particuli%C3%A8rement%2C%20l'empreinte%20carbone,(moins%20d'%C3%A9missions)" xr:uid="{E2FF803E-C66D-6145-8871-FCC5EDBEA397}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49870139-A294-A348-A47C-FB7938FA65F9}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>